--- a/biology/Zoologie/Dolphin_Discovery/Dolphin_Discovery.xlsx
+++ b/biology/Zoologie/Dolphin_Discovery/Dolphin_Discovery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dolphin Discovery est une société mexicaine exploitant des delphinariums, et offrant à ses clients l'expérience de nager avec des grands dauphins, des otaries à fourrure d'Afrique du Sud et des lamantins.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis son ouverture en 1994, Dolphin Discovery aurait accueilli plus de 6 millions de visiteurs[réf. nécessaire] dans ses 24 parcs situés au Mexique, en Jamaïque, dans les Caraïbes, aux États-Unis et en Italie.
-En 2014, le groupe investit 6 millions de dollars pour construire deux nouveaux parcs, un dans le Quintana Roo et un en République Dominicaine[2].
-En 2015, le groupe achète le Zoomarine Roma, en Italie, à la société Mundo Aquático SA, pour 25 millions d'euros[3], et le Gulf World Marine Park, en Floride[4].
-A Mexico, les députés de l'Assemblée législative de la Ville ont adopté en août 2017 un ensemble de lois interdisant l'utilisation de dauphins captifs pour les spectacles, les interactions avec les visiteurs, les séances de "thérapie" et les recherches scientifiques. Le président de la Commission de l'environnement a particulièrement visé le delphinarium du parc à thème Six Flags México, opéré par le groupe Dolphin Discovery[5].
+En 2014, le groupe investit 6 millions de dollars pour construire deux nouveaux parcs, un dans le Quintana Roo et un en République Dominicaine.
+En 2015, le groupe achète le Zoomarine Roma, en Italie, à la société Mundo Aquático SA, pour 25 millions d'euros, et le Gulf World Marine Park, en Floride.
+A Mexico, les députés de l'Assemblée législative de la Ville ont adopté en août 2017 un ensemble de lois interdisant l'utilisation de dauphins captifs pour les spectacles, les interactions avec les visiteurs, les séances de "thérapie" et les recherches scientifiques. Le président de la Commission de l'environnement a particulièrement visé le delphinarium du parc à thème Six Flags México, opéré par le groupe Dolphin Discovery.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Parcs du groupe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède 10 parcs au Mexique, dont 7 dans l'État du Quintana Roo : Dolphin Discovery Cancun - Isla Mujeres, Dolphin Discovery Costa Maya, Dolphin Discovery Dreams Puerto Aventuras, Dolphin Discovery Cozumel, Dolphin Discovery Riviera Maya Puerto Aventuras, Dolphin Discovery Tumul - Akumal, Dolphin Discovery Playa del Carmen ; et 3 dans d'autres États : Dolphin Discovery Los Cabos (Basse-Californie du Sud), Six Flags México (Mexico) et Dolphin Discovery Puerto Vallarta (Nayarit).
 Il possède également 11 parcs dans d'autres pays : 1 en Italie (Zoomarine Roma), 3 en Jamaïque, exploités par sa filiale Dolphin Cove Jamaica (en) (Dolphin Cove Montego Bay, Dolphin Cove Ocho Rios et Moon Palace Jamaica Grande) ; 1 aux États-Unis, en Floride (Dolphin Discovery au Golfe World Marine Park, Panama City Beach) ; et 6 dans les Caraïbes (Dolphin Discovery Anguilla - St-Martin sur l'île d'Anguilla, Dauphin Cayman et Cove Cayman dans les Îles Caïmans, Dolphin Discovery Tortola dans les Îles Vierges Britanniques, Dolphin Discovery Punta Cana en République Dominicaine, et Dolphin Cove Saint-Kitts à Saint-Kitts-et-Nevis).
